--- a/src/test/java/resources/ulkeler.xlsx
+++ b/src/test/java/resources/ulkeler.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="578">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1751,12 +1751,16 @@
   </si>
   <si>
     <t>54000</t>
+  </si>
+  <si>
+    <t>250000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -2145,7 +2149,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2161,8 +2165,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="4" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.88671875" style="5"/>
+    <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
+    <col min="5" max="5" style="5" width="8.88671875" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1">
@@ -2178,7 +2182,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" t="s">
         <v>573</v>
       </c>
     </row>
@@ -2195,7 +2199,7 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>574</v>
       </c>
     </row>
@@ -2310,8 +2314,8 @@
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>575</v>
+      <c r="E10" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.6" thickBot="1">
@@ -2383,7 +2387,7 @@
       <c r="D15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>576</v>
       </c>
     </row>

--- a/src/test/java/resources/ulkeler.xlsx
+++ b/src/test/java/resources/ulkeler.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="578">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -2166,7 +2166,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="4" customWidth="true" width="25.6640625" collapsed="true"/>
-    <col min="5" max="5" style="5" width="8.88671875" collapsed="false"/>
+    <col min="5" max="5" style="5" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.2" thickBot="1">
